--- a/T04_M3_D2_Dimension_Mapping_files/T04_M3_D2_Dimension_Mapping_metadata.xlsx
+++ b/T04_M3_D2_Dimension_Mapping_files/T04_M3_D2_Dimension_Mapping_metadata.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\New folder (3)\Course Material UST\Sem 5-Spr2018\Data Warehousing\Project\M3\Answers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\New folder (3)\Course Material UST\Sem 5-Spr2018\Data Warehousing\Project\M3\Answers\T04_M3_D2_Dimension_Mapping_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE06465-92FF-4DDD-B17B-C713B4279802}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E19108-1492-45EF-AE63-AF69F6725644}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="4" xr2:uid="{4BCD3B06-A9D7-4471-91C7-2D4ACC75E743}"/>
   </bookViews>
   <sheets>
     <sheet name="MSA" sheetId="1" r:id="rId1"/>
-    <sheet name="Package" sheetId="2" r:id="rId2"/>
-    <sheet name="Product" sheetId="3" r:id="rId3"/>
-    <sheet name="Purchase_Date" sheetId="4" r:id="rId4"/>
-    <sheet name="Sales_Org" sheetId="5" r:id="rId5"/>
+    <sheet name="PACKAGE" sheetId="2" r:id="rId2"/>
+    <sheet name="PRODUCT" sheetId="3" r:id="rId3"/>
+    <sheet name="PURCHASE_DATE" sheetId="4" r:id="rId4"/>
+    <sheet name="SALES_ORG" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -112,9 +112,6 @@
     <t>MSA_Metropolitan_Area_Key</t>
   </si>
   <si>
-    <t>Package</t>
-  </si>
-  <si>
     <t>PKG_Key</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>FEA_Value</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>PRD_Key</t>
   </si>
   <si>
@@ -301,9 +295,6 @@
     <t>MMC_ID</t>
   </si>
   <si>
-    <t>Purchase_Date</t>
-  </si>
-  <si>
     <t>PDAT_Key</t>
   </si>
   <si>
@@ -455,6 +446,15 @@
   </si>
   <si>
     <t>PDAT_Day_Of_Quarter</t>
+  </si>
+  <si>
+    <t>PACKAGE</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>PURCHASE_DATE</t>
   </si>
 </sst>
 </file>
@@ -968,33 +968,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1013,38 +986,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1061,45 +1004,129 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1107,33 +1134,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1467,62 +1467,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="46" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="40" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1536,11 +1536,11 @@
       <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
@@ -1549,30 +1549,30 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="61"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1601,30 +1601,30 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="61"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1653,30 +1653,30 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="61"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1705,26 +1705,26 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1758,62 +1758,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="67" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="40" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1822,67 +1822,67 @@
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="81"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="F4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="61"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
@@ -1892,576 +1892,576 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="32" t="s">
+      <c r="A6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="G6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="61"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="32" t="s">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="G8" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="61"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="1"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="32" t="s">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="G10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="61"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="32" t="s">
+      <c r="A12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="G12" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="61"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="32" t="s">
+      <c r="A14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="G14" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="60"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="61"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="1"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="32" t="s">
+      <c r="A16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="G16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="60"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="61"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="1"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="32" t="s">
+      <c r="A18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="G18" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="60"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="61"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="1"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="32" t="s">
+      <c r="A20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="G20" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="60"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="61"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="32" t="s">
+      <c r="A22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="G22" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="60"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="61"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="42"/>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
@@ -2484,7 +2484,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B4" sqref="B4:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2498,62 +2498,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="46" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="40" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2562,16 +2562,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
@@ -2580,45 +2580,45 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="61"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
@@ -2628,46 +2628,46 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="32" t="s">
+      <c r="A6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="61"/>
+      <c r="D6" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3"/>
@@ -2676,49 +2676,49 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="61"/>
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
@@ -2728,45 +2728,45 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="76" t="s">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="61"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
@@ -2776,46 +2776,46 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="61"/>
+      <c r="A12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
       <c r="I13" s="3"/>
@@ -2824,49 +2824,49 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="A14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="61"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
@@ -2876,49 +2876,49 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="61"/>
+      <c r="A16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
@@ -2928,49 +2928,49 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="32" t="s">
+      <c r="A18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="61"/>
+      <c r="D18" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
@@ -2980,49 +2980,49 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="61"/>
+      <c r="A20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
@@ -3033,15 +3033,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3052,7 +3052,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B4" sqref="B4:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3066,62 +3066,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="46" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="40" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3130,10 +3130,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
@@ -3148,40 +3148,40 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="61"/>
+      <c r="F4" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -3196,49 +3196,49 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="61"/>
+      <c r="F6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
@@ -3248,49 +3248,49 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="61"/>
+      <c r="F8" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
@@ -3300,49 +3300,49 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="61"/>
+      <c r="F10" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
@@ -3352,45 +3352,45 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="31" t="s">
+      <c r="A12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="61"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
@@ -3400,49 +3400,49 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="61"/>
+      <c r="F14" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
@@ -3452,49 +3452,49 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="61"/>
+      <c r="F16" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
@@ -3504,49 +3504,49 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="61"/>
+      <c r="F18" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
@@ -3556,49 +3556,49 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="61"/>
+      <c r="F20" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="1"/>
@@ -3608,30 +3608,30 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="64"/>
+      <c r="F22" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3665,62 +3665,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91" t="s">
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="92"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="82" t="s">
+      <c r="H1" s="89"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="40" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3729,16 +3729,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
@@ -3747,49 +3747,49 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="61"/>
+      <c r="F4" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
@@ -3799,52 +3799,52 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="A6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="61"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3"/>
@@ -3853,49 +3853,49 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="31" t="s">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="61"/>
+      <c r="E8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
@@ -3905,55 +3905,55 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="31" t="s">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="52" t="s">
+      <c r="E10" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="61"/>
+      <c r="H10" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="41"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
@@ -3963,121 +3963,121 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="31" t="s">
+      <c r="A12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="61"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="76" t="s">
+      <c r="A14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="61"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/T04_M3_D2_Dimension_Mapping_files/T04_M3_D2_Dimension_Mapping_metadata.xlsx
+++ b/T04_M3_D2_Dimension_Mapping_files/T04_M3_D2_Dimension_Mapping_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\New folder (3)\Course Material UST\Sem 5-Spr2018\Data Warehousing\Project\M3\Answers\T04_M3_D2_Dimension_Mapping_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS_SQL12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E19108-1492-45EF-AE63-AF69F6725644}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4184B8-1629-470C-9E99-C16709F0C2C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="4" xr2:uid="{4BCD3B06-A9D7-4471-91C7-2D4ACC75E743}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="5" activeTab="9" xr2:uid="{4BCD3B06-A9D7-4471-91C7-2D4ACC75E743}"/>
   </bookViews>
   <sheets>
     <sheet name="MSA" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="PRODUCT" sheetId="3" r:id="rId3"/>
     <sheet name="PURCHASE_DATE" sheetId="4" r:id="rId4"/>
     <sheet name="SALES_ORG" sheetId="5" r:id="rId5"/>
+    <sheet name="DEALER" sheetId="6" r:id="rId6"/>
+    <sheet name="CUSTOMER" sheetId="7" r:id="rId7"/>
+    <sheet name="INCENTIVE_PLAN" sheetId="8" r:id="rId8"/>
+    <sheet name="MANUFACTURING_DATE" sheetId="9" r:id="rId9"/>
+    <sheet name="MANUFACTURING_PLANT" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="268">
   <si>
     <t>DESTINATION</t>
   </si>
@@ -455,13 +460,391 @@
   </si>
   <si>
     <t>PURCHASE_DATE</t>
+  </si>
+  <si>
+    <t>SEIS732_Team_04_Star_Schema</t>
+  </si>
+  <si>
+    <t>Dealer</t>
+  </si>
+  <si>
+    <t>DLR_Key</t>
+  </si>
+  <si>
+    <t>DLR_Code</t>
+  </si>
+  <si>
+    <t>DLR_Name</t>
+  </si>
+  <si>
+    <t>Independent</t>
+  </si>
+  <si>
+    <t>ID_Name</t>
+  </si>
+  <si>
+    <t>SEIS732_Team_04_Corporate</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>CD_Name</t>
+  </si>
+  <si>
+    <t>DLR_Address</t>
+  </si>
+  <si>
+    <t>Owner_Address</t>
+  </si>
+  <si>
+    <t>OADR_Address</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>BR_Address</t>
+  </si>
+  <si>
+    <t>DLR_City</t>
+  </si>
+  <si>
+    <t>DLR_County</t>
+  </si>
+  <si>
+    <t>OADR_County</t>
+  </si>
+  <si>
+    <t>BR_County</t>
+  </si>
+  <si>
+    <t>DLR_State</t>
+  </si>
+  <si>
+    <t>DLR_Country</t>
+  </si>
+  <si>
+    <t>OADR_Country</t>
+  </si>
+  <si>
+    <t>BR_Country</t>
+  </si>
+  <si>
+    <t>DLR_Zip</t>
+  </si>
+  <si>
+    <t>DLR_Authorized_Makes</t>
+  </si>
+  <si>
+    <t>DLR_Type</t>
+  </si>
+  <si>
+    <t>DLR_Independent_Or_Corporate</t>
+  </si>
+  <si>
+    <t>DLR_Email_Address</t>
+  </si>
+  <si>
+    <t>DLR_Email</t>
+  </si>
+  <si>
+    <t>DLR_Initiation_Date</t>
+  </si>
+  <si>
+    <t>DLR_Since</t>
+  </si>
+  <si>
+    <t>DLR_Phone_Number</t>
+  </si>
+  <si>
+    <t>DLR_Phone</t>
+  </si>
+  <si>
+    <t>DLR_Official_Website_ID</t>
+  </si>
+  <si>
+    <t>WEB_ID</t>
+  </si>
+  <si>
+    <t>DLR_Official_WebsiteURL</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>WEB_URL</t>
+  </si>
+  <si>
+    <t>DLR_Official_WebsiteAdministrator_Email</t>
+  </si>
+  <si>
+    <t>WEB_Admin</t>
+  </si>
+  <si>
+    <t>DLR_Official_Website_Start_Date</t>
+  </si>
+  <si>
+    <t>WEB_Start_Date</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Cust_Key</t>
+  </si>
+  <si>
+    <t>Cust_Id</t>
+  </si>
+  <si>
+    <t>CUST_ID</t>
+  </si>
+  <si>
+    <t>Cust_City</t>
+  </si>
+  <si>
+    <t>CUST_CITY</t>
+  </si>
+  <si>
+    <t>Cust_County</t>
+  </si>
+  <si>
+    <t>CUST_COUNTY</t>
+  </si>
+  <si>
+    <t>Cust_State</t>
+  </si>
+  <si>
+    <t>CUST_STATE</t>
+  </si>
+  <si>
+    <t>Cust_Country</t>
+  </si>
+  <si>
+    <t>CUST_COUNTRY</t>
+  </si>
+  <si>
+    <t>Cust_Zip</t>
+  </si>
+  <si>
+    <t>CUST_ZIP</t>
+  </si>
+  <si>
+    <t>Incentive_Plan</t>
+  </si>
+  <si>
+    <t>PLAN_Key</t>
+  </si>
+  <si>
+    <t>PLAN_ID</t>
+  </si>
+  <si>
+    <t>IncentiveProgram</t>
+  </si>
+  <si>
+    <t>IP_ID</t>
+  </si>
+  <si>
+    <t>PLAN_Type</t>
+  </si>
+  <si>
+    <t>IP_Type</t>
+  </si>
+  <si>
+    <t>PLAN_Level</t>
+  </si>
+  <si>
+    <t>IP_Level</t>
+  </si>
+  <si>
+    <t>PLAN_Name</t>
+  </si>
+  <si>
+    <t>IP_Name</t>
+  </si>
+  <si>
+    <t>PLAN_Description</t>
+  </si>
+  <si>
+    <t>IP_Desc</t>
+  </si>
+  <si>
+    <t>PLAN_Number_of_Payments</t>
+  </si>
+  <si>
+    <t>IP_Num_Payments</t>
+  </si>
+  <si>
+    <t>PLAN_Rate</t>
+  </si>
+  <si>
+    <t>IP_Rate</t>
+  </si>
+  <si>
+    <t>Manufacturing_Date</t>
+  </si>
+  <si>
+    <t>MDAT_Key</t>
+  </si>
+  <si>
+    <t>MDAT_Year</t>
+  </si>
+  <si>
+    <t>RRV_Instance</t>
+  </si>
+  <si>
+    <t>RV_MFG_Date</t>
+  </si>
+  <si>
+    <t>MDAT_Quarter_Key</t>
+  </si>
+  <si>
+    <t>MDAT_Quarter_Name</t>
+  </si>
+  <si>
+    <t>MDAT_Quarter_Description</t>
+  </si>
+  <si>
+    <t>MDAT_Quarter</t>
+  </si>
+  <si>
+    <t>MDAT_Week</t>
+  </si>
+  <si>
+    <t>MDAT_Week_Of_Year</t>
+  </si>
+  <si>
+    <t>MDAT_Week_Of_Quarter</t>
+  </si>
+  <si>
+    <t>MDAT_Month_Key</t>
+  </si>
+  <si>
+    <t>MDAT_Month_Number</t>
+  </si>
+  <si>
+    <t>MDAT_Month_Name</t>
+  </si>
+  <si>
+    <t>MDAT_Month_Abbreviation</t>
+  </si>
+  <si>
+    <t>MDAT_Day_Of_Year</t>
+  </si>
+  <si>
+    <t>MDAT_Day_Of_Quarter</t>
+  </si>
+  <si>
+    <t>MDAT_Day_Of_Week</t>
+  </si>
+  <si>
+    <t>MDAT_Day_Of_Month</t>
+  </si>
+  <si>
+    <t>MDAT_Weekday_Or_Weekend</t>
+  </si>
+  <si>
+    <t>MDAT_Date</t>
+  </si>
+  <si>
+    <t>MDAT_Full_Date_Description</t>
+  </si>
+  <si>
+    <t>Manufacturing_Plant</t>
+  </si>
+  <si>
+    <t>MFG_Key</t>
+  </si>
+  <si>
+    <t>MFG_Name</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>PLA_Name</t>
+  </si>
+  <si>
+    <t>MFG_Description</t>
+  </si>
+  <si>
+    <t>PLA_Desc</t>
+  </si>
+  <si>
+    <t>MFG_Plant_Code</t>
+  </si>
+  <si>
+    <t>PLA_Code</t>
+  </si>
+  <si>
+    <t>MFG_Address</t>
+  </si>
+  <si>
+    <t>MFG_City</t>
+  </si>
+  <si>
+    <t>BR_City</t>
+  </si>
+  <si>
+    <t>MFG_County</t>
+  </si>
+  <si>
+    <t>MFG_State</t>
+  </si>
+  <si>
+    <t>BR_State</t>
+  </si>
+  <si>
+    <t>MFG_Country</t>
+  </si>
+  <si>
+    <t>MFG_Zip</t>
+  </si>
+  <si>
+    <t>BR_Zip</t>
+  </si>
+  <si>
+    <t>MFG_Date_Established</t>
+  </si>
+  <si>
+    <t>PLA_Established</t>
+  </si>
+  <si>
+    <t>MFG_Number_Of_Workers</t>
+  </si>
+  <si>
+    <t>PLA_WorkForce</t>
+  </si>
+  <si>
+    <t>RTG_ID</t>
+  </si>
+  <si>
+    <t>MFG_Plant_OverAll_Rating</t>
+  </si>
+  <si>
+    <t>Ratings</t>
+  </si>
+  <si>
+    <t>RTG_Overall_Rating</t>
+  </si>
+  <si>
+    <t>MFG_Plant_Efficiency_Rating</t>
+  </si>
+  <si>
+    <t>RTG_Quality_Rating</t>
+  </si>
+  <si>
+    <t>MFG_Plant_Quality_Rating</t>
+  </si>
+  <si>
+    <t>RTG_Eff_Rating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,8 +858,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,8 +901,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -953,11 +1413,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1082,6 +1595,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1089,15 +1611,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1136,9 +1649,112 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{645838F5-A1FE-4099-BE5D-F6DEA1B071DA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1456,17 +2072,17 @@
       <selection activeCell="J1" sqref="J1:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +2104,7 @@
       <c r="K1" s="53"/>
       <c r="L1" s="54"/>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -1526,7 +2142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1548,7 +2164,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +2190,7 @@
       <c r="K4" s="29"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1600,7 +2216,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1626,7 +2242,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1652,7 +2268,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -1678,7 +2294,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1704,7 +2320,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
@@ -1733,6 +2349,508 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16914A74-2BEE-4053-879E-6F57408517E0}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="145" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="104"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+    </row>
+    <row r="5" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="159" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="108" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+    </row>
+    <row r="7" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="108" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+    </row>
+    <row r="9" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="115" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+    </row>
+    <row r="10" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="108" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+    </row>
+    <row r="11" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="115" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+    </row>
+    <row r="12" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+    </row>
+    <row r="13" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+    </row>
+    <row r="14" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="108" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+    </row>
+    <row r="15" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+    </row>
+    <row r="16" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="108" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+    </row>
+    <row r="17" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="115" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" s="115" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+    </row>
+    <row r="18" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="108" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="108" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="D3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1747,17 +2865,17 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +2897,7 @@
       <c r="K1" s="53"/>
       <c r="L1" s="54"/>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -1817,7 +2935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1839,7 +2957,7 @@
       <c r="K3" s="50"/>
       <c r="L3" s="51"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -1865,7 +2983,7 @@
       <c r="K4" s="29"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1891,7 +3009,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1923,7 +3041,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +3073,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -1987,7 +3105,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2019,7 +3137,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -2051,7 +3169,7 @@
       <c r="K10" s="29"/>
       <c r="L10" s="42"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2083,7 +3201,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -2115,7 +3233,7 @@
       <c r="K12" s="29"/>
       <c r="L12" s="42"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -2147,7 +3265,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -2179,7 +3297,7 @@
       <c r="K14" s="29"/>
       <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2211,7 +3329,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
@@ -2243,7 +3361,7 @@
       <c r="K16" s="29"/>
       <c r="L16" s="42"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2275,7 +3393,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>7</v>
       </c>
@@ -2307,7 +3425,7 @@
       <c r="K18" s="29"/>
       <c r="L18" s="42"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2339,7 +3457,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>7</v>
       </c>
@@ -2371,7 +3489,7 @@
       <c r="K20" s="29"/>
       <c r="L20" s="42"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2403,7 +3521,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>7</v>
       </c>
@@ -2435,7 +3553,7 @@
       <c r="K22" s="29"/>
       <c r="L22" s="42"/>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2487,17 +3605,17 @@
       <selection activeCell="B4" sqref="B4:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +3637,7 @@
       <c r="K1" s="53"/>
       <c r="L1" s="54"/>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -2557,7 +3675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -2579,7 +3697,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -2589,11 +3707,11 @@
       <c r="C4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="33"/>
       <c r="H4" s="28"/>
       <c r="I4" s="34"/>
@@ -2601,7 +3719,7 @@
       <c r="K4" s="29"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +3745,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -2653,7 +3771,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2663,11 +3781,11 @@
       <c r="C7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3"/>
@@ -2675,7 +3793,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -2701,7 +3819,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2727,7 +3845,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -2737,11 +3855,11 @@
       <c r="C10" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="33"/>
       <c r="H10" s="28"/>
       <c r="I10" s="34"/>
@@ -2749,7 +3867,7 @@
       <c r="K10" s="29"/>
       <c r="L10" s="42"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2775,7 +3893,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -2801,7 +3919,7 @@
       <c r="K12" s="29"/>
       <c r="L12" s="42"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -2811,11 +3929,11 @@
       <c r="C13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
       <c r="I13" s="3"/>
@@ -2823,7 +3941,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -2849,7 +3967,7 @@
       <c r="K14" s="29"/>
       <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2875,7 +3993,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
@@ -2901,7 +4019,7 @@
       <c r="K16" s="29"/>
       <c r="L16" s="42"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2927,7 +4045,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>7</v>
       </c>
@@ -2953,7 +4071,7 @@
       <c r="K18" s="29"/>
       <c r="L18" s="42"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2979,7 +4097,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>7</v>
       </c>
@@ -3005,7 +4123,7 @@
       <c r="K20" s="29"/>
       <c r="L20" s="42"/>
     </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -3033,15 +4151,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3055,17 +4173,17 @@
       <selection activeCell="B4" sqref="B4:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -3087,7 +4205,7 @@
       <c r="K1" s="53"/>
       <c r="L1" s="54"/>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -3125,7 +4243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -3147,7 +4265,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -3173,7 +4291,7 @@
       <c r="K4" s="29"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -3195,7 +4313,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -3221,7 +4339,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3247,7 +4365,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -3273,7 +4391,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3299,7 +4417,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -3325,7 +4443,7 @@
       <c r="K10" s="29"/>
       <c r="L10" s="42"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3351,7 +4469,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -3373,7 +4491,7 @@
       <c r="K12" s="29"/>
       <c r="L12" s="42"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -3399,7 +4517,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -3425,7 +4543,7 @@
       <c r="K14" s="29"/>
       <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -3451,7 +4569,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
@@ -3477,7 +4595,7 @@
       <c r="K16" s="29"/>
       <c r="L16" s="42"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -3503,7 +4621,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>7</v>
       </c>
@@ -3529,7 +4647,7 @@
       <c r="K18" s="29"/>
       <c r="L18" s="42"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -3555,7 +4673,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>7</v>
       </c>
@@ -3581,7 +4699,7 @@
       <c r="K20" s="29"/>
       <c r="L20" s="42"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -3607,7 +4725,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16" t="s">
         <v>7</v>
       </c>
@@ -3648,23 +4766,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700387D5-0127-441F-9E06-719A45D5B2FB}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
@@ -3686,7 +4804,7 @@
       <c r="K1" s="92"/>
       <c r="L1" s="93"/>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -3724,7 +4842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -3746,7 +4864,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -3772,7 +4890,7 @@
       <c r="K4" s="29"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -3798,7 +4916,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -3830,7 +4948,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3840,11 +4958,11 @@
       <c r="C7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3"/>
@@ -3852,7 +4970,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -3878,7 +4996,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3904,7 +5022,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -3936,7 +5054,7 @@
       <c r="K10" s="29"/>
       <c r="L10" s="42"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3962,7 +5080,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -3988,7 +5106,7 @@
       <c r="K12" s="29"/>
       <c r="L12" s="42"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -4020,7 +5138,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -4030,11 +5148,11 @@
       <c r="C14" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78"/>
       <c r="G14" s="33"/>
       <c r="H14" s="28"/>
       <c r="I14" s="34"/>
@@ -4042,7 +5160,7 @@
       <c r="K14" s="29"/>
       <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -4092,4 +5210,1774 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1887661A-18B3-4C2E-9A19-6A63BB9C49BA}">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="4" width="30.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="110" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+    </row>
+    <row r="5" spans="1:15" s="125" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="121" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="122"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="126" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+    </row>
+    <row r="7" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="129" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="130"/>
+      <c r="H7" s="102"/>
+      <c r="I7"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="127" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="110" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="112" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+    </row>
+    <row r="9" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="129" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="130"/>
+      <c r="H9" s="102"/>
+      <c r="I9"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+    </row>
+    <row r="10" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="132" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="127" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="110" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+    </row>
+    <row r="11" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="115" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="129" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="133" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="130"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+    </row>
+    <row r="12" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="132" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="110" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="135"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+    </row>
+    <row r="13" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="138" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="133" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="133" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" s="130"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+    </row>
+    <row r="14" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="132" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="127" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="140" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="141" t="s">
+        <v>170</v>
+      </c>
+      <c r="J14" s="130"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+    </row>
+    <row r="15" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="138" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="133" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="133" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" s="130"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+    </row>
+    <row r="16" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="110" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="135"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+    </row>
+    <row r="17" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="130" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" s="130"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+    </row>
+    <row r="18" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="142" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="135"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+    </row>
+    <row r="19" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="120" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="133" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="130"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+    </row>
+    <row r="20" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="132" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="135"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659F94D7-6779-479C-802D-76AFBF60D2B6}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="145" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="146" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="139" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="147"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+    </row>
+    <row r="5" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="133" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="130"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="146" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="139" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="147"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+    </row>
+    <row r="7" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="133" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="130"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="146" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="139" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="110" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="147"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+    </row>
+    <row r="9" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="133" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="130"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416099EE-3B4E-4A28-A73B-2CE7DE2617D4}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="145" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="150" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="142" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="147"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+    </row>
+    <row r="5" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="151" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="130"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="142" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="147"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+    </row>
+    <row r="7" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="130"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="142" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="147"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+    </row>
+    <row r="9" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" s="130"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+    </row>
+    <row r="10" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="142" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="135"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545115FB-C4D6-4BC5-8971-FA64E82F2CF8}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
+    <col min="4" max="4" width="27.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="27.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="145" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="152" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="153"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="154" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="142" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="142" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="142" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="147"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+    </row>
+    <row r="5" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="155" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="154" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="142" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="142" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="142" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="147"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+    </row>
+    <row r="7" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="120" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="156" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="156" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="130"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="154" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="142" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="142" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="142" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="147"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+    </row>
+    <row r="9" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="120" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="156" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="156" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="130"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+    </row>
+    <row r="10" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="154" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="157" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="142" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="142" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="135"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+    </row>
+    <row r="11" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="120" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="156" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="156" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" s="130"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+    </row>
+    <row r="12" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="154" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+    </row>
+    <row r="13" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="120" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="156" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="156" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="130"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+    </row>
+    <row r="14" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="154" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="142" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="142" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="142" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="135"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+    </row>
+    <row r="15" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="120" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="156" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="156" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15" s="130"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+    </row>
+    <row r="16" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="154" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="142" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="142" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="142" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" s="135"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+    </row>
+    <row r="17" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="156" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="156" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="130"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+    </row>
+    <row r="18" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="154" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="142" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="142" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="142" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+    </row>
+    <row r="19" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="120" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="156" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="156" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19" s="130"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+    </row>
+    <row r="20" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="154" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="142" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="142" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="142" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20" s="135"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+    </row>
+    <row r="21" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="156" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="156" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="130"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+    </row>
+    <row r="22" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="154" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="142" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="142" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22" s="142" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" s="135"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/T04_M3_D2_Dimension_Mapping_files/T04_M3_D2_Dimension_Mapping_metadata.xlsx
+++ b/T04_M3_D2_Dimension_Mapping_files/T04_M3_D2_Dimension_Mapping_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS_SQL12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aanup\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4184B8-1629-470C-9E99-C16709F0C2C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E149A049-8AC8-4F68-8913-AC209D2DB40E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="5" activeTab="9" xr2:uid="{4BCD3B06-A9D7-4471-91C7-2D4ACC75E743}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="5" activeTab="5" xr2:uid="{4BCD3B06-A9D7-4471-91C7-2D4ACC75E743}"/>
   </bookViews>
   <sheets>
     <sheet name="MSA" sheetId="1" r:id="rId1"/>
@@ -1523,6 +1523,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1661,11 +1721,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1678,78 +1733,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2072,39 +2072,39 @@
       <selection activeCell="J1" sqref="J1:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="E1" s="111"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="52" t="s">
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K1" s="105"/>
+      <c r="L1" s="106"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -2152,11 +2152,11 @@
       <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
@@ -2164,7 +2164,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="K4" s="29"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +2216,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -2294,7 +2294,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
@@ -2330,11 +2330,11 @@
       <c r="C10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="118"/>
       <c r="G10" s="35"/>
       <c r="H10" s="36"/>
       <c r="I10" s="37"/>
@@ -2359,491 +2359,491 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16914A74-2BEE-4053-879E-6F57408517E0}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" customWidth="1"/>
-    <col min="4" max="4" width="30.1796875" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96" t="s">
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="97" t="s">
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="145" t="s">
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="101" t="s">
+      <c r="K2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="101" t="s">
+      <c r="L2" s="55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="102" t="s">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="107" t="s">
+      <c r="E3" s="151"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-    </row>
-    <row r="5" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="102" t="s">
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+    </row>
+    <row r="5" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="159" t="s">
+      <c r="F5" s="103" t="s">
         <v>244</v>
       </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="107" t="s">
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="108" t="s">
+      <c r="F6" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-    </row>
-    <row r="7" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="102" t="s">
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="115" t="s">
+      <c r="F7" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="107" t="s">
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="108" t="s">
+      <c r="F8" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-    </row>
-    <row r="9" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="102" t="s">
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+    </row>
+    <row r="9" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-    </row>
-    <row r="10" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="107" t="s">
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+    </row>
+    <row r="10" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="108" t="s">
+      <c r="F10" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-    </row>
-    <row r="11" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="102" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+    </row>
+    <row r="11" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-    </row>
-    <row r="12" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="107" t="s">
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+    </row>
+    <row r="12" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="F12" s="108" t="s">
+      <c r="F12" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-    </row>
-    <row r="13" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="102" t="s">
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+    </row>
+    <row r="13" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="115" t="s">
+      <c r="E13" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-    </row>
-    <row r="14" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="107" t="s">
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row r="14" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-    </row>
-    <row r="15" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="102" t="s">
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+    </row>
+    <row r="15" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="115" t="s">
+      <c r="E15" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="F15" s="115" t="s">
+      <c r="F15" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-    </row>
-    <row r="16" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="107" t="s">
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+    </row>
+    <row r="16" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="108" t="s">
+      <c r="E16" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="F16" s="108" t="s">
+      <c r="F16" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-    </row>
-    <row r="17" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="102" t="s">
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+    </row>
+    <row r="17" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="56" t="s">
         <v>264</v>
       </c>
-      <c r="D17" s="115" t="s">
+      <c r="D17" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="115" t="s">
+      <c r="E17" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="F17" s="115" t="s">
+      <c r="F17" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-    </row>
-    <row r="18" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="107" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+    </row>
+    <row r="18" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="108" t="s">
+      <c r="E18" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="F18" s="108" t="s">
+      <c r="F18" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2865,39 +2865,39 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="73" t="s">
+      <c r="E1" s="111"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="52" t="s">
+      <c r="H1" s="126"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K1" s="105"/>
+      <c r="L1" s="106"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -2945,11 +2945,11 @@
       <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
@@ -2957,7 +2957,7 @@
       <c r="K3" s="50"/>
       <c r="L3" s="51"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -2983,7 +2983,7 @@
       <c r="K4" s="29"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -3009,7 +3009,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -3105,7 +3105,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -3169,7 +3169,7 @@
       <c r="K10" s="29"/>
       <c r="L10" s="42"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3201,7 +3201,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="K12" s="29"/>
       <c r="L12" s="42"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -3265,7 +3265,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="K14" s="29"/>
       <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -3329,7 +3329,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
@@ -3361,7 +3361,7 @@
       <c r="K16" s="29"/>
       <c r="L16" s="42"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>7</v>
       </c>
@@ -3425,7 +3425,7 @@
       <c r="K18" s="29"/>
       <c r="L18" s="42"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>7</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="K20" s="29"/>
       <c r="L20" s="42"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -3521,7 +3521,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>7</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="K22" s="29"/>
       <c r="L22" s="42"/>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -3605,39 +3605,39 @@
       <selection activeCell="B4" sqref="B4:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="E1" s="111"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="52" t="s">
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K1" s="105"/>
+      <c r="L1" s="106"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -3685,11 +3685,11 @@
       <c r="C3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
@@ -3697,7 +3697,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -3707,11 +3707,11 @@
       <c r="C4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130"/>
       <c r="G4" s="33"/>
       <c r="H4" s="28"/>
       <c r="I4" s="34"/>
@@ -3719,7 +3719,7 @@
       <c r="K4" s="29"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -3771,7 +3771,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3781,11 +3781,11 @@
       <c r="C7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3"/>
@@ -3793,7 +3793,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3845,7 +3845,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -3855,11 +3855,11 @@
       <c r="C10" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="130"/>
       <c r="G10" s="33"/>
       <c r="H10" s="28"/>
       <c r="I10" s="34"/>
@@ -3867,7 +3867,7 @@
       <c r="K10" s="29"/>
       <c r="L10" s="42"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3893,7 +3893,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -3919,7 +3919,7 @@
       <c r="K12" s="29"/>
       <c r="L12" s="42"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -3929,11 +3929,11 @@
       <c r="C13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="133"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
       <c r="I13" s="3"/>
@@ -3941,7 +3941,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="K14" s="29"/>
       <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -3993,7 +3993,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="K16" s="29"/>
       <c r="L16" s="42"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -4045,7 +4045,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>7</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="K18" s="29"/>
       <c r="L18" s="42"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>7</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="K20" s="29"/>
       <c r="L20" s="42"/>
     </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -4151,15 +4151,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4173,39 +4173,39 @@
       <selection activeCell="B4" sqref="B4:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61" t="s">
+      <c r="E1" s="111"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="52" t="s">
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K1" s="105"/>
+      <c r="L1" s="106"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -4265,7 +4265,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -4291,7 +4291,7 @@
       <c r="K4" s="29"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -4313,7 +4313,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -4339,7 +4339,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -4365,7 +4365,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -4391,7 +4391,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -4443,7 +4443,7 @@
       <c r="K10" s="29"/>
       <c r="L10" s="42"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -4469,7 +4469,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -4491,7 +4491,7 @@
       <c r="K12" s="29"/>
       <c r="L12" s="42"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -4517,7 +4517,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -4543,7 +4543,7 @@
       <c r="K14" s="29"/>
       <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -4569,7 +4569,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
@@ -4595,7 +4595,7 @@
       <c r="K16" s="29"/>
       <c r="L16" s="42"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -4621,7 +4621,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>7</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="K18" s="29"/>
       <c r="L18" s="42"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>7</v>
       </c>
@@ -4699,7 +4699,7 @@
       <c r="K20" s="29"/>
       <c r="L20" s="42"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>7</v>
       </c>
@@ -4770,41 +4770,41 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="135"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="88" t="s">
+      <c r="E1" s="138"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="91" t="s">
+      <c r="H1" s="141"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="92"/>
-      <c r="L1" s="93"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K1" s="144"/>
+      <c r="L1" s="145"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -4852,11 +4852,11 @@
       <c r="C3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
@@ -4864,7 +4864,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="K4" s="29"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -4916,7 +4916,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -4948,7 +4948,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -4958,11 +4958,11 @@
       <c r="C7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3"/>
@@ -4970,7 +4970,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -4996,7 +4996,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -5022,7 +5022,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -5054,7 +5054,7 @@
       <c r="K10" s="29"/>
       <c r="L10" s="42"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -5080,7 +5080,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -5106,7 +5106,7 @@
       <c r="K12" s="29"/>
       <c r="L12" s="42"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -5138,7 +5138,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -5148,11 +5148,11 @@
       <c r="C14" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="33"/>
       <c r="H14" s="28"/>
       <c r="I14" s="34"/>
@@ -5160,7 +5160,7 @@
       <c r="K14" s="29"/>
       <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -5216,596 +5216,596 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1887661A-18B3-4C2E-9A19-6A63BB9C49BA}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="4" width="30.1796875" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="4" width="30.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96" t="s">
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="97" t="s">
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="98" t="s">
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="101" t="s">
+      <c r="K2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="101" t="s">
+      <c r="L2" s="55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="102" t="s">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="107" t="s">
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="109" t="s">
+      <c r="D4" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-    </row>
-    <row r="5" spans="1:15" s="125" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="115" t="s">
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+    </row>
+    <row r="5" spans="1:15" s="75" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="117" t="s">
+      <c r="D5" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="119" t="s">
+      <c r="G5" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="120" t="s">
+      <c r="H5" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="121" t="s">
+      <c r="I5" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="122"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="107" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="109" t="s">
+      <c r="D6" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="111" t="s">
+      <c r="G6" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="I6" s="128" t="s">
+      <c r="I6" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-    </row>
-    <row r="7" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="102" t="s">
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:15" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="129" t="s">
+      <c r="D7" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="79" t="s">
         <v>143</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="130"/>
-      <c r="H7" s="102"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="56"/>
       <c r="I7"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="107" t="s">
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="112" t="s">
+      <c r="H8" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="112" t="s">
+      <c r="I8" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-    </row>
-    <row r="9" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="102" t="s">
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+    </row>
+    <row r="9" spans="1:15" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="129" t="s">
+      <c r="D9" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="79" t="s">
         <v>143</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="102"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="56"/>
       <c r="I9"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-    </row>
-    <row r="10" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="132" t="s">
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+    </row>
+    <row r="10" spans="1:15" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="109" t="s">
+      <c r="E10" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="110" t="s">
+      <c r="F10" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="111" t="s">
+      <c r="G10" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="112" t="s">
+      <c r="H10" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="I10" s="112" t="s">
+      <c r="I10" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-    </row>
-    <row r="11" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="115" t="s">
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+    </row>
+    <row r="11" spans="1:15" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="129" t="s">
+      <c r="D11" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="133" t="s">
+      <c r="F11" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="G11" s="130"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-    </row>
-    <row r="12" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="132" t="s">
+      <c r="G11" s="80"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+    </row>
+    <row r="12" spans="1:15" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="127" t="s">
+      <c r="D12" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="110" t="s">
+      <c r="F12" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="G12" s="135"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-    </row>
-    <row r="13" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="115" t="s">
+      <c r="G12" s="85"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+    </row>
+    <row r="13" spans="1:15" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="120" t="s">
+      <c r="E13" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="133" t="s">
+      <c r="F13" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="G13" s="119" t="s">
+      <c r="G13" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="120" t="s">
+      <c r="H13" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="I13" s="133" t="s">
+      <c r="I13" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="J13" s="130"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-    </row>
-    <row r="14" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="132" t="s">
+      <c r="J13" s="80"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row r="14" spans="1:15" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="139" t="s">
+      <c r="E14" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="111" t="s">
+      <c r="G14" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="140" t="s">
+      <c r="H14" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="I14" s="141" t="s">
+      <c r="I14" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="J14" s="130"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-    </row>
-    <row r="15" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="115" t="s">
+      <c r="J14" s="80"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+    </row>
+    <row r="15" spans="1:15" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="138" t="s">
+      <c r="D15" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="120" t="s">
+      <c r="E15" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="133" t="s">
+      <c r="F15" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="G15" s="119" t="s">
+      <c r="G15" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="120" t="s">
+      <c r="H15" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="I15" s="133" t="s">
+      <c r="I15" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="J15" s="130"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-    </row>
-    <row r="16" spans="1:15" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="132" t="s">
+      <c r="J15" s="80"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+    </row>
+    <row r="16" spans="1:15" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="132" t="s">
+      <c r="C16" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="139" t="s">
+      <c r="E16" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="110" t="s">
+      <c r="F16" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="135"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-    </row>
-    <row r="17" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="115" t="s">
+      <c r="G16" s="85"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+    </row>
+    <row r="17" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="115" t="s">
+      <c r="C17" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="120" t="s">
+      <c r="E17" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="F17" s="133" t="s">
+      <c r="F17" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="G17" s="130" t="s">
+      <c r="G17" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="120" t="s">
+      <c r="H17" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="I17" s="133" t="s">
+      <c r="I17" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="J17" s="130"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-    </row>
-    <row r="18" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="132" t="s">
+      <c r="J17" s="80"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+    </row>
+    <row r="18" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="132" t="s">
+      <c r="C18" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="139" t="s">
+      <c r="E18" s="89" t="s">
         <v>178</v>
       </c>
-      <c r="F18" s="142" t="s">
+      <c r="F18" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="G18" s="135"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-    </row>
-    <row r="19" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="115" t="s">
+      <c r="G18" s="85"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+    </row>
+    <row r="19" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="120" t="s">
+      <c r="E19" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="133" t="s">
+      <c r="F19" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="G19" s="130"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-    </row>
-    <row r="20" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="132" t="s">
+      <c r="G19" s="80"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+    </row>
+    <row r="20" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="139" t="s">
+      <c r="E20" s="89" t="s">
         <v>178</v>
       </c>
-      <c r="F20" s="110" t="s">
+      <c r="F20" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="G20" s="135"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5828,253 +5828,253 @@
       <selection sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96" t="s">
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="97" t="s">
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="145" t="s">
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="101" t="s">
+      <c r="K2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="101" t="s">
+      <c r="L2" s="55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="102" t="s">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="107" t="s">
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="139" t="s">
+      <c r="D4" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="147"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-    </row>
-    <row r="5" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="102" t="s">
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+    </row>
+    <row r="5" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="120" t="s">
+      <c r="D5" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="133" t="s">
+      <c r="F5" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="107" t="s">
+      <c r="G5" s="80"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="139" t="s">
+      <c r="D6" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="G6" s="147"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-    </row>
-    <row r="7" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="102" t="s">
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="133" t="s">
+      <c r="F7" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="G7" s="130"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="107" t="s">
+      <c r="G7" s="80"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="139" t="s">
+      <c r="D8" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="147"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-    </row>
-    <row r="9" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="102" t="s">
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+    </row>
+    <row r="9" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="120" t="s">
+      <c r="D9" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="133" t="s">
+      <c r="F9" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6096,279 +6096,279 @@
       <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="29.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="149" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="96" t="s">
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="97" t="s">
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="145" t="s">
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="150" t="s">
+      <c r="E2" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="101" t="s">
+      <c r="K2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="101" t="s">
+      <c r="L2" s="55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="102" t="s">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="107" t="s">
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="139" t="s">
+      <c r="D4" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="147"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-    </row>
-    <row r="5" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="102" t="s">
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+    </row>
+    <row r="5" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="151" t="s">
+      <c r="D5" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="99" t="s">
         <v>201</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="107" t="s">
+      <c r="G5" s="80"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="139" t="s">
+      <c r="D6" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="142" t="s">
+      <c r="F6" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="G6" s="147"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-    </row>
-    <row r="7" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="102" t="s">
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="70" t="s">
         <v>201</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G7" s="130"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="107" t="s">
+      <c r="G7" s="80"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="139" t="s">
+      <c r="D8" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="142" t="s">
+      <c r="F8" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="147"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-    </row>
-    <row r="9" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="102" t="s">
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+    </row>
+    <row r="9" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="120" t="s">
+      <c r="D9" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="70" t="s">
         <v>201</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-    </row>
-    <row r="10" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="107" t="s">
+      <c r="G9" s="80"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+    </row>
+    <row r="10" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="139" t="s">
+      <c r="D10" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="142" t="s">
+      <c r="F10" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6390,583 +6390,583 @@
       <selection sqref="A1:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="27.08984375" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96" t="s">
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="97" t="s">
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="145" t="s">
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="101" t="s">
+      <c r="K2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="101" t="s">
+      <c r="L2" s="55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="102" t="s">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="153"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="107" t="s">
+      <c r="E3" s="158"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="142" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="142" t="s">
+      <c r="D4" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="G4" s="147"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-    </row>
-    <row r="5" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="102" t="s">
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+    </row>
+    <row r="5" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="107" t="s">
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="142" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="142" t="s">
+      <c r="D6" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="142" t="s">
+      <c r="F6" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="G6" s="147"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-    </row>
-    <row r="7" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="102" t="s">
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="156" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="156" t="s">
+      <c r="D7" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="F7" s="156" t="s">
+      <c r="F7" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="G7" s="130"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="107" t="s">
+      <c r="G7" s="80"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="154" t="s">
+      <c r="C8" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="142" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="142" t="s">
+      <c r="D8" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="F8" s="142" t="s">
+      <c r="F8" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="G8" s="147"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-    </row>
-    <row r="9" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="102" t="s">
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+    </row>
+    <row r="9" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="156" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="156" t="s">
+      <c r="D9" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="F9" s="156" t="s">
+      <c r="F9" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-    </row>
-    <row r="10" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="107" t="s">
+      <c r="G9" s="80"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+    </row>
+    <row r="10" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="157" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="142" t="s">
+      <c r="D10" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="F10" s="142" t="s">
+      <c r="F10" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-    </row>
-    <row r="11" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="102" t="s">
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+    </row>
+    <row r="11" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="156" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="156" t="s">
+      <c r="D11" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="156" t="s">
+      <c r="F11" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="G11" s="130"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-    </row>
-    <row r="12" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="107" t="s">
+      <c r="G11" s="80"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+    </row>
+    <row r="12" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="158" t="s">
+      <c r="D12" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-    </row>
-    <row r="13" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="102" t="s">
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+    </row>
+    <row r="13" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="C13" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="156" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="156" t="s">
+      <c r="D13" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="F13" s="156" t="s">
+      <c r="F13" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="G13" s="130"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-    </row>
-    <row r="14" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="107" t="s">
+      <c r="G13" s="80"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row r="14" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="142" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="142" t="s">
+      <c r="D14" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="F14" s="142" t="s">
+      <c r="F14" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="135"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-    </row>
-    <row r="15" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="102" t="s">
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+    </row>
+    <row r="15" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="156" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="156" t="s">
+      <c r="D15" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="F15" s="156" t="s">
+      <c r="F15" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-    </row>
-    <row r="16" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="107" t="s">
+      <c r="G15" s="80"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+    </row>
+    <row r="16" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="142" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="142" t="s">
+      <c r="D16" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="F16" s="142" t="s">
+      <c r="F16" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="G16" s="135"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-    </row>
-    <row r="17" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="102" t="s">
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+    </row>
+    <row r="17" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="D17" s="156" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="156" t="s">
+      <c r="D17" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="F17" s="156" t="s">
+      <c r="F17" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-    </row>
-    <row r="18" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="107" t="s">
+      <c r="G17" s="80"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+    </row>
+    <row r="18" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="154" t="s">
+      <c r="C18" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="142" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="142" t="s">
+      <c r="D18" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="142" t="s">
+      <c r="F18" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="G18" s="135"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-    </row>
-    <row r="19" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="102" t="s">
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+    </row>
+    <row r="19" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="70" t="s">
         <v>234</v>
       </c>
-      <c r="D19" s="156" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="156" t="s">
+      <c r="D19" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="F19" s="156" t="s">
+      <c r="F19" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="G19" s="130"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-    </row>
-    <row r="20" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="107" t="s">
+      <c r="G19" s="80"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+    </row>
+    <row r="20" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="154" t="s">
+      <c r="C20" s="100" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="142" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="142" t="s">
+      <c r="D20" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="142" t="s">
+      <c r="F20" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="135"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-    </row>
-    <row r="21" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="102" t="s">
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+    </row>
+    <row r="21" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="D21" s="156" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="156" t="s">
+      <c r="D21" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="F21" s="156" t="s">
+      <c r="F21" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="G21" s="130"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-    </row>
-    <row r="22" spans="1:12" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="107" t="s">
+      <c r="G21" s="80"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+    </row>
+    <row r="22" spans="1:12" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="154" t="s">
+      <c r="C22" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="142" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="142" t="s">
+      <c r="D22" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="G22" s="135"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="7">
